--- a/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.846615416279152</v>
+        <v>5.698708526566545</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.047288490626785</v>
+        <v>6.165769011825606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.249809445281101</v>
+        <v>1.28558693070447</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.017238172913429</v>
+        <v>0.9950850121732446</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.031943107841859</v>
+        <v>1.119744891003558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5098437078910832</v>
+        <v>0.4654345123804519</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.50625306317608</v>
+        <v>14.18886408646794</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.60764863495655</v>
+        <v>15.72295098726104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.894429635776397</v>
+        <v>5.894251620960275</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5.850644045366531</v>
+        <v>5.760152091405354</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6.447985415950436</v>
+        <v>6.540690869398423</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16.69120176114689</v>
+        <v>17.82362769297551</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.50222218029393</v>
+        <v>13.97291223971321</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.920619588277489</v>
+        <v>7.999582259922396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.772686437406614</v>
+        <v>1.777507843349845</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>6.662887762889095</v>
+        <v>6.29497148978777</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>2.165956739864975</v>
+        <v>2.294362449321103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7720628770055055</v>
+        <v>0.6098081650209013</v>
       </c>
     </row>
     <row r="9">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>22.08350907172138</v>
+        <v>22.13598284430118</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.2309256565408</v>
+        <v>16.03902228138373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.124249276575656</v>
+        <v>6.394326277775924</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>78.60484425277156</v>
+        <v>74.70469605409208</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>11.43097842479746</v>
+        <v>12.70759309580658</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
     </row>
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.373518695416196</v>
+        <v>4.799403140909235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.904149189504945</v>
+        <v>4.030951631414101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.333895361052222</v>
+        <v>2.374551497677293</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.392612635504936</v>
+        <v>1.609364990549999</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.02586516918818</v>
+        <v>0.898064672630575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.446431616855791</v>
+        <v>1.034318448348189</v>
       </c>
     </row>
     <row r="12">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.92758567047481</v>
+        <v>14.39369023947035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.86937721100543</v>
+        <v>12.341021782185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.12681146307127</v>
+        <v>10.24176239914214</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>9.339552638003177</v>
+        <v>10.19020078115007</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.743045294665383</v>
+        <v>5.720085594661555</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>41.84851729408722</v>
+        <v>34.1209410544917</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.448032078135367</v>
+        <v>4.517939708061598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.736046256273826</v>
+        <v>3.442637900924354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.447335221392447</v>
+        <v>3.333896660558647</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.897085451686992</v>
+        <v>1.913194379739523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.07975213022244</v>
+        <v>1.014356104107456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.366580916270113</v>
+        <v>2.08493147255873</v>
       </c>
     </row>
     <row r="15">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.933851477964083</v>
+        <v>8.801661247916186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.924946584390299</v>
+        <v>7.909148563468454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.806929682435298</v>
+        <v>6.654255756278765</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7.097642039381952</v>
+        <v>7.164741478672457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.100463593943238</v>
+        <v>4.0999431665655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12.07434185690756</v>
+        <v>10.98111265764459</v>
       </c>
     </row>
     <row r="16">
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.03142673198366805</v>
+        <v>0.1467549103571283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8294675338812494</v>
+        <v>0.764510810666668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3935006767275168</v>
+        <v>-0.3703817828450358</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1179511793755423</v>
+        <v>-0.09912671419864595</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2619499052239716</v>
+        <v>0.2075418830073867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2503508496543322</v>
+        <v>-0.2383798898977809</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.958533383551683</v>
+        <v>4.816680169368343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.358675816178127</v>
+        <v>4.11663617212442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.485662949957376</v>
+        <v>2.420588968741148</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4.618752032333244</v>
+        <v>4.388462995607484</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8.659334999977931</v>
+        <v>7.479890896835444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.821008694333067</v>
+        <v>3.940677221117074</v>
       </c>
     </row>
     <row r="19">
@@ -1046,22 +1046,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.055562925828385</v>
+        <v>0.5919307332056158</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.5193729303806625</v>
+        <v>-0.4788201007686448</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.151016389671291</v>
+        <v>-1.06624872786216</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2499807845179134</v>
+        <v>0.1318965052008579</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1749203845711486</v>
+        <v>-0.1232028653514313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5123930814484804</v>
+        <v>-0.5102780451181166</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.093754639596967</v>
+        <v>4.085713652249702</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.077215332665626</v>
+        <v>4.190184483348088</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.873390299771124</v>
+        <v>1.940747972241698</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>11.05934012765065</v>
+        <v>11.20588278607583</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.576844452781009</v>
+        <v>4.150269301246357</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.418976803287295</v>
+        <v>5.633123749700032</v>
       </c>
     </row>
     <row r="22">
@@ -1128,22 +1128,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.724091676268627</v>
+        <v>4.776924887405152</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.837079870502057</v>
+        <v>3.902077544807612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.945203511800071</v>
+        <v>1.943543965463528</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1.927262252399819</v>
+        <v>1.951555067362308</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.338102799101462</v>
+        <v>1.317834275672198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.585755575254433</v>
+        <v>1.573760228514227</v>
       </c>
     </row>
     <row r="24">
@@ -1154,22 +1154,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.81483904269469</v>
+        <v>7.047811214437479</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.876480581919324</v>
+        <v>5.916068547636702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.349686296979682</v>
+        <v>3.347161481219963</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>4.280095342395279</v>
+        <v>4.242275649814528</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.833504732588537</v>
+        <v>2.825331923200948</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.783315959921905</v>
+        <v>4.789806086906298</v>
       </c>
     </row>
     <row r="25">
